--- a/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_1/new_bg/0002/model.xlsx
+++ b/data/cylinder_radius_10.0/peak_shift/eal_5_restricted_range/offcenter_1/new_bg/0002/model.xlsx
@@ -23187,7 +23187,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -23243,7 +23243,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -23299,7 +23299,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -23355,7 +23355,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -23411,7 +23411,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -23467,7 +23467,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -23523,7 +23523,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -23579,7 +23579,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -23635,7 +23635,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -23691,7 +23691,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -23747,7 +23747,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -23803,7 +23803,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -23859,7 +23859,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -23915,7 +23915,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -23971,7 +23971,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -24027,7 +24027,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -24083,7 +24083,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -24139,7 +24139,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -24195,7 +24195,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -24251,7 +24251,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -24307,7 +24307,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -24363,7 +24363,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -24419,7 +24419,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -24475,7 +24475,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -24531,7 +24531,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -24587,7 +24587,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -24643,7 +24643,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -24699,7 +24699,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -24755,7 +24755,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -24811,7 +24811,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -24867,7 +24867,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -24923,7 +24923,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -24979,7 +24979,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -25035,7 +25035,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -25091,7 +25091,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -25147,7 +25147,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -25203,7 +25203,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -25259,7 +25259,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -25315,7 +25315,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -25371,7 +25371,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -25427,7 +25427,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -25483,7 +25483,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -25539,7 +25539,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -25595,7 +25595,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -25651,7 +25651,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -25707,7 +25707,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -25763,7 +25763,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -25819,7 +25819,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -25875,7 +25875,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -25931,7 +25931,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -25987,7 +25987,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -26043,7 +26043,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -26099,7 +26099,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -26155,7 +26155,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -26211,7 +26211,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -26267,7 +26267,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -26323,7 +26323,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -26379,7 +26379,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -26435,7 +26435,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -26491,7 +26491,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -26547,7 +26547,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -26603,7 +26603,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -26659,7 +26659,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -26715,7 +26715,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -26771,7 +26771,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -26827,7 +26827,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -26883,7 +26883,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -26939,7 +26939,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -26995,7 +26995,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -27051,7 +27051,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -27107,7 +27107,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -27163,7 +27163,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -27219,7 +27219,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -27275,7 +27275,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -27331,7 +27331,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -27387,7 +27387,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -27443,7 +27443,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -27499,7 +27499,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -27555,7 +27555,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -27611,7 +27611,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -27667,7 +27667,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -27723,7 +27723,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -27779,7 +27779,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -27835,7 +27835,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -27891,7 +27891,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -27947,7 +27947,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -28003,7 +28003,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -28059,7 +28059,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -28115,7 +28115,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -28171,7 +28171,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -28227,7 +28227,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -28283,7 +28283,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -28339,7 +28339,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -28395,7 +28395,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -28451,7 +28451,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -28507,7 +28507,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -28563,7 +28563,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -28619,7 +28619,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -28675,7 +28675,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -28731,7 +28731,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -28787,7 +28787,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -28843,7 +28843,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -28899,7 +28899,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -28955,7 +28955,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -29011,7 +29011,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -29067,7 +29067,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -29123,7 +29123,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -29179,7 +29179,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -29235,7 +29235,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -29291,7 +29291,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -29347,7 +29347,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -29403,7 +29403,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -29459,7 +29459,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -29515,7 +29515,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -29571,7 +29571,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -29627,7 +29627,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -29683,7 +29683,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -29739,7 +29739,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -29795,7 +29795,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -29851,7 +29851,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -29907,7 +29907,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -29963,7 +29963,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -30019,7 +30019,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -30075,7 +30075,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -30131,7 +30131,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -30187,7 +30187,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -30243,7 +30243,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -30299,7 +30299,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -30355,7 +30355,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -30411,7 +30411,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -30467,7 +30467,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -30523,7 +30523,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -30579,7 +30579,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -30635,7 +30635,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -30691,7 +30691,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -30747,7 +30747,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -30803,7 +30803,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -30859,7 +30859,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -30915,7 +30915,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -30971,7 +30971,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -31027,7 +31027,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -31083,7 +31083,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -31139,7 +31139,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -31195,7 +31195,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -31251,7 +31251,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -31307,7 +31307,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -31363,7 +31363,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -31419,7 +31419,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -31475,7 +31475,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -31531,7 +31531,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -31587,7 +31587,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -31643,7 +31643,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -31699,7 +31699,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -31755,7 +31755,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -31811,7 +31811,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -31867,7 +31867,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -31923,7 +31923,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -31979,7 +31979,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -32035,7 +32035,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -32091,7 +32091,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -32147,7 +32147,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -32203,7 +32203,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -32259,7 +32259,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -32315,7 +32315,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -32371,7 +32371,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -32427,7 +32427,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -32483,7 +32483,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -32539,7 +32539,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -32595,7 +32595,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -32651,7 +32651,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -32707,7 +32707,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -32763,7 +32763,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -32819,7 +32819,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -32875,7 +32875,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -32931,7 +32931,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -32987,7 +32987,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -33043,7 +33043,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -33099,7 +33099,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -33155,7 +33155,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -33211,7 +33211,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -33267,7 +33267,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -33323,7 +33323,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -33379,7 +33379,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -33435,7 +33435,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -33491,7 +33491,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -33547,7 +33547,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -33603,7 +33603,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -33659,7 +33659,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -33715,7 +33715,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -33771,7 +33771,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -33827,7 +33827,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -33883,7 +33883,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -33939,7 +33939,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -33995,7 +33995,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -34051,7 +34051,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -34107,7 +34107,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -34163,7 +34163,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -34219,7 +34219,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -34275,7 +34275,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -34331,7 +34331,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -34387,7 +34387,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>1.709671192748299e-8</v>
+        <v>1.7096711927482986e-8</v>
       </c>
       <c r="N202">
         <v>0.002</v>
@@ -45837,7 +45837,7 @@
         <v>5000.0</v>
       </c>
       <c r="M2">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N2">
         <v>0.002</v>
@@ -45893,7 +45893,7 @@
         <v>5000.0</v>
       </c>
       <c r="M3">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N3">
         <v>0.002</v>
@@ -45949,7 +45949,7 @@
         <v>5000.0</v>
       </c>
       <c r="M4">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N4">
         <v>0.002</v>
@@ -46005,7 +46005,7 @@
         <v>5000.0</v>
       </c>
       <c r="M5">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N5">
         <v>0.002</v>
@@ -46061,7 +46061,7 @@
         <v>5000.0</v>
       </c>
       <c r="M6">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N6">
         <v>0.002</v>
@@ -46117,7 +46117,7 @@
         <v>5000.0</v>
       </c>
       <c r="M7">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N7">
         <v>0.002</v>
@@ -46173,7 +46173,7 @@
         <v>5000.0</v>
       </c>
       <c r="M8">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N8">
         <v>0.002</v>
@@ -46229,7 +46229,7 @@
         <v>5000.0</v>
       </c>
       <c r="M9">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N9">
         <v>0.002</v>
@@ -46285,7 +46285,7 @@
         <v>5000.0</v>
       </c>
       <c r="M10">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N10">
         <v>0.002</v>
@@ -46341,7 +46341,7 @@
         <v>5000.0</v>
       </c>
       <c r="M11">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N11">
         <v>0.002</v>
@@ -46397,7 +46397,7 @@
         <v>5000.0</v>
       </c>
       <c r="M12">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N12">
         <v>0.002</v>
@@ -46453,7 +46453,7 @@
         <v>5000.0</v>
       </c>
       <c r="M13">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N13">
         <v>0.002</v>
@@ -46509,7 +46509,7 @@
         <v>5000.0</v>
       </c>
       <c r="M14">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N14">
         <v>0.002</v>
@@ -46565,7 +46565,7 @@
         <v>5000.0</v>
       </c>
       <c r="M15">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N15">
         <v>0.002</v>
@@ -46621,7 +46621,7 @@
         <v>5000.0</v>
       </c>
       <c r="M16">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N16">
         <v>0.002</v>
@@ -46677,7 +46677,7 @@
         <v>5000.0</v>
       </c>
       <c r="M17">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N17">
         <v>0.002</v>
@@ -46733,7 +46733,7 @@
         <v>5000.0</v>
       </c>
       <c r="M18">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N18">
         <v>0.002</v>
@@ -46789,7 +46789,7 @@
         <v>5000.0</v>
       </c>
       <c r="M19">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N19">
         <v>0.002</v>
@@ -46845,7 +46845,7 @@
         <v>5000.0</v>
       </c>
       <c r="M20">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N20">
         <v>0.002</v>
@@ -46901,7 +46901,7 @@
         <v>5000.0</v>
       </c>
       <c r="M21">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N21">
         <v>0.002</v>
@@ -46957,7 +46957,7 @@
         <v>5000.0</v>
       </c>
       <c r="M22">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N22">
         <v>0.002</v>
@@ -47013,7 +47013,7 @@
         <v>5000.0</v>
       </c>
       <c r="M23">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N23">
         <v>0.002</v>
@@ -47069,7 +47069,7 @@
         <v>5000.0</v>
       </c>
       <c r="M24">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N24">
         <v>0.002</v>
@@ -47125,7 +47125,7 @@
         <v>5000.0</v>
       </c>
       <c r="M25">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N25">
         <v>0.002</v>
@@ -47181,7 +47181,7 @@
         <v>5000.0</v>
       </c>
       <c r="M26">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N26">
         <v>0.002</v>
@@ -47237,7 +47237,7 @@
         <v>5000.0</v>
       </c>
       <c r="M27">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N27">
         <v>0.002</v>
@@ -47293,7 +47293,7 @@
         <v>5000.0</v>
       </c>
       <c r="M28">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N28">
         <v>0.002</v>
@@ -47349,7 +47349,7 @@
         <v>5000.0</v>
       </c>
       <c r="M29">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N29">
         <v>0.002</v>
@@ -47405,7 +47405,7 @@
         <v>5000.0</v>
       </c>
       <c r="M30">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N30">
         <v>0.002</v>
@@ -47461,7 +47461,7 @@
         <v>5000.0</v>
       </c>
       <c r="M31">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N31">
         <v>0.002</v>
@@ -47517,7 +47517,7 @@
         <v>5000.0</v>
       </c>
       <c r="M32">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N32">
         <v>0.002</v>
@@ -47573,7 +47573,7 @@
         <v>5000.0</v>
       </c>
       <c r="M33">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N33">
         <v>0.002</v>
@@ -47629,7 +47629,7 @@
         <v>5000.0</v>
       </c>
       <c r="M34">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N34">
         <v>0.002</v>
@@ -47685,7 +47685,7 @@
         <v>5000.0</v>
       </c>
       <c r="M35">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N35">
         <v>0.002</v>
@@ -47741,7 +47741,7 @@
         <v>5000.0</v>
       </c>
       <c r="M36">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N36">
         <v>0.002</v>
@@ -47797,7 +47797,7 @@
         <v>5000.0</v>
       </c>
       <c r="M37">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N37">
         <v>0.002</v>
@@ -47853,7 +47853,7 @@
         <v>5000.0</v>
       </c>
       <c r="M38">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N38">
         <v>0.002</v>
@@ -47909,7 +47909,7 @@
         <v>5000.0</v>
       </c>
       <c r="M39">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N39">
         <v>0.002</v>
@@ -47965,7 +47965,7 @@
         <v>5000.0</v>
       </c>
       <c r="M40">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N40">
         <v>0.002</v>
@@ -48021,7 +48021,7 @@
         <v>5000.0</v>
       </c>
       <c r="M41">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N41">
         <v>0.002</v>
@@ -48077,7 +48077,7 @@
         <v>5000.0</v>
       </c>
       <c r="M42">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N42">
         <v>0.002</v>
@@ -48133,7 +48133,7 @@
         <v>5000.0</v>
       </c>
       <c r="M43">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N43">
         <v>0.002</v>
@@ -48189,7 +48189,7 @@
         <v>5000.0</v>
       </c>
       <c r="M44">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N44">
         <v>0.002</v>
@@ -48245,7 +48245,7 @@
         <v>5000.0</v>
       </c>
       <c r="M45">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N45">
         <v>0.002</v>
@@ -48301,7 +48301,7 @@
         <v>5000.0</v>
       </c>
       <c r="M46">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N46">
         <v>0.002</v>
@@ -48357,7 +48357,7 @@
         <v>5000.0</v>
       </c>
       <c r="M47">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N47">
         <v>0.002</v>
@@ -48413,7 +48413,7 @@
         <v>5000.0</v>
       </c>
       <c r="M48">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N48">
         <v>0.002</v>
@@ -48469,7 +48469,7 @@
         <v>5000.0</v>
       </c>
       <c r="M49">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N49">
         <v>0.002</v>
@@ -48525,7 +48525,7 @@
         <v>5000.0</v>
       </c>
       <c r="M50">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N50">
         <v>0.002</v>
@@ -48581,7 +48581,7 @@
         <v>5000.0</v>
       </c>
       <c r="M51">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N51">
         <v>0.002</v>
@@ -48637,7 +48637,7 @@
         <v>5000.0</v>
       </c>
       <c r="M52">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N52">
         <v>0.002</v>
@@ -48693,7 +48693,7 @@
         <v>5000.0</v>
       </c>
       <c r="M53">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N53">
         <v>0.002</v>
@@ -48749,7 +48749,7 @@
         <v>5000.0</v>
       </c>
       <c r="M54">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N54">
         <v>0.002</v>
@@ -48805,7 +48805,7 @@
         <v>5000.0</v>
       </c>
       <c r="M55">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N55">
         <v>0.002</v>
@@ -48861,7 +48861,7 @@
         <v>5000.0</v>
       </c>
       <c r="M56">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N56">
         <v>0.002</v>
@@ -48917,7 +48917,7 @@
         <v>5000.0</v>
       </c>
       <c r="M57">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N57">
         <v>0.002</v>
@@ -48973,7 +48973,7 @@
         <v>5000.0</v>
       </c>
       <c r="M58">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N58">
         <v>0.002</v>
@@ -49029,7 +49029,7 @@
         <v>5000.0</v>
       </c>
       <c r="M59">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N59">
         <v>0.002</v>
@@ -49085,7 +49085,7 @@
         <v>5000.0</v>
       </c>
       <c r="M60">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N60">
         <v>0.002</v>
@@ -49141,7 +49141,7 @@
         <v>5000.0</v>
       </c>
       <c r="M61">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N61">
         <v>0.002</v>
@@ -49197,7 +49197,7 @@
         <v>5000.0</v>
       </c>
       <c r="M62">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N62">
         <v>0.002</v>
@@ -49253,7 +49253,7 @@
         <v>5000.0</v>
       </c>
       <c r="M63">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N63">
         <v>0.002</v>
@@ -49309,7 +49309,7 @@
         <v>5000.0</v>
       </c>
       <c r="M64">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N64">
         <v>0.002</v>
@@ -49365,7 +49365,7 @@
         <v>5000.0</v>
       </c>
       <c r="M65">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N65">
         <v>0.002</v>
@@ -49421,7 +49421,7 @@
         <v>5000.0</v>
       </c>
       <c r="M66">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N66">
         <v>0.002</v>
@@ -49477,7 +49477,7 @@
         <v>5000.0</v>
       </c>
       <c r="M67">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N67">
         <v>0.002</v>
@@ -49533,7 +49533,7 @@
         <v>5000.0</v>
       </c>
       <c r="M68">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N68">
         <v>0.002</v>
@@ -49589,7 +49589,7 @@
         <v>5000.0</v>
       </c>
       <c r="M69">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N69">
         <v>0.002</v>
@@ -49645,7 +49645,7 @@
         <v>5000.0</v>
       </c>
       <c r="M70">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N70">
         <v>0.002</v>
@@ -49701,7 +49701,7 @@
         <v>5000.0</v>
       </c>
       <c r="M71">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N71">
         <v>0.002</v>
@@ -49757,7 +49757,7 @@
         <v>5000.0</v>
       </c>
       <c r="M72">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N72">
         <v>0.002</v>
@@ -49813,7 +49813,7 @@
         <v>5000.0</v>
       </c>
       <c r="M73">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N73">
         <v>0.002</v>
@@ -49869,7 +49869,7 @@
         <v>5000.0</v>
       </c>
       <c r="M74">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N74">
         <v>0.002</v>
@@ -49925,7 +49925,7 @@
         <v>5000.0</v>
       </c>
       <c r="M75">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N75">
         <v>0.002</v>
@@ -49981,7 +49981,7 @@
         <v>5000.0</v>
       </c>
       <c r="M76">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N76">
         <v>0.002</v>
@@ -50037,7 +50037,7 @@
         <v>5000.0</v>
       </c>
       <c r="M77">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N77">
         <v>0.002</v>
@@ -50093,7 +50093,7 @@
         <v>5000.0</v>
       </c>
       <c r="M78">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N78">
         <v>0.002</v>
@@ -50149,7 +50149,7 @@
         <v>5000.0</v>
       </c>
       <c r="M79">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N79">
         <v>0.002</v>
@@ -50205,7 +50205,7 @@
         <v>5000.0</v>
       </c>
       <c r="M80">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N80">
         <v>0.002</v>
@@ -50261,7 +50261,7 @@
         <v>5000.0</v>
       </c>
       <c r="M81">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N81">
         <v>0.002</v>
@@ -50317,7 +50317,7 @@
         <v>5000.0</v>
       </c>
       <c r="M82">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N82">
         <v>0.002</v>
@@ -50373,7 +50373,7 @@
         <v>5000.0</v>
       </c>
       <c r="M83">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N83">
         <v>0.002</v>
@@ -50429,7 +50429,7 @@
         <v>5000.0</v>
       </c>
       <c r="M84">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N84">
         <v>0.002</v>
@@ -50485,7 +50485,7 @@
         <v>5000.0</v>
       </c>
       <c r="M85">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N85">
         <v>0.002</v>
@@ -50541,7 +50541,7 @@
         <v>5000.0</v>
       </c>
       <c r="M86">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N86">
         <v>0.002</v>
@@ -50597,7 +50597,7 @@
         <v>5000.0</v>
       </c>
       <c r="M87">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N87">
         <v>0.002</v>
@@ -50653,7 +50653,7 @@
         <v>5000.0</v>
       </c>
       <c r="M88">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N88">
         <v>0.002</v>
@@ -50709,7 +50709,7 @@
         <v>5000.0</v>
       </c>
       <c r="M89">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N89">
         <v>0.002</v>
@@ -50765,7 +50765,7 @@
         <v>5000.0</v>
       </c>
       <c r="M90">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N90">
         <v>0.002</v>
@@ -50821,7 +50821,7 @@
         <v>5000.0</v>
       </c>
       <c r="M91">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N91">
         <v>0.002</v>
@@ -50877,7 +50877,7 @@
         <v>5000.0</v>
       </c>
       <c r="M92">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N92">
         <v>0.002</v>
@@ -50933,7 +50933,7 @@
         <v>5000.0</v>
       </c>
       <c r="M93">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N93">
         <v>0.002</v>
@@ -50989,7 +50989,7 @@
         <v>5000.0</v>
       </c>
       <c r="M94">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N94">
         <v>0.002</v>
@@ -51045,7 +51045,7 @@
         <v>5000.0</v>
       </c>
       <c r="M95">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N95">
         <v>0.002</v>
@@ -51101,7 +51101,7 @@
         <v>5000.0</v>
       </c>
       <c r="M96">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N96">
         <v>0.002</v>
@@ -51157,7 +51157,7 @@
         <v>5000.0</v>
       </c>
       <c r="M97">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N97">
         <v>0.002</v>
@@ -51213,7 +51213,7 @@
         <v>5000.0</v>
       </c>
       <c r="M98">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N98">
         <v>0.002</v>
@@ -51269,7 +51269,7 @@
         <v>5000.0</v>
       </c>
       <c r="M99">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N99">
         <v>0.002</v>
@@ -51325,7 +51325,7 @@
         <v>5000.0</v>
       </c>
       <c r="M100">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N100">
         <v>0.002</v>
@@ -51381,7 +51381,7 @@
         <v>5000.0</v>
       </c>
       <c r="M101">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N101">
         <v>0.002</v>
@@ -51437,7 +51437,7 @@
         <v>5000.0</v>
       </c>
       <c r="M102">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N102">
         <v>0.002</v>
@@ -51493,7 +51493,7 @@
         <v>5000.0</v>
       </c>
       <c r="M103">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N103">
         <v>0.002</v>
@@ -51549,7 +51549,7 @@
         <v>5000.0</v>
       </c>
       <c r="M104">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N104">
         <v>0.002</v>
@@ -51605,7 +51605,7 @@
         <v>5000.0</v>
       </c>
       <c r="M105">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N105">
         <v>0.002</v>
@@ -51661,7 +51661,7 @@
         <v>5000.0</v>
       </c>
       <c r="M106">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N106">
         <v>0.002</v>
@@ -51717,7 +51717,7 @@
         <v>5000.0</v>
       </c>
       <c r="M107">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N107">
         <v>0.002</v>
@@ -51773,7 +51773,7 @@
         <v>5000.0</v>
       </c>
       <c r="M108">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N108">
         <v>0.002</v>
@@ -51829,7 +51829,7 @@
         <v>5000.0</v>
       </c>
       <c r="M109">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N109">
         <v>0.002</v>
@@ -51885,7 +51885,7 @@
         <v>5000.0</v>
       </c>
       <c r="M110">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N110">
         <v>0.002</v>
@@ -51941,7 +51941,7 @@
         <v>5000.0</v>
       </c>
       <c r="M111">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N111">
         <v>0.002</v>
@@ -51997,7 +51997,7 @@
         <v>5000.0</v>
       </c>
       <c r="M112">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N112">
         <v>0.002</v>
@@ -52053,7 +52053,7 @@
         <v>5000.0</v>
       </c>
       <c r="M113">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N113">
         <v>0.002</v>
@@ -52109,7 +52109,7 @@
         <v>5000.0</v>
       </c>
       <c r="M114">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N114">
         <v>0.002</v>
@@ -52165,7 +52165,7 @@
         <v>5000.0</v>
       </c>
       <c r="M115">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N115">
         <v>0.002</v>
@@ -52221,7 +52221,7 @@
         <v>5000.0</v>
       </c>
       <c r="M116">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N116">
         <v>0.002</v>
@@ -52277,7 +52277,7 @@
         <v>5000.0</v>
       </c>
       <c r="M117">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N117">
         <v>0.002</v>
@@ -52333,7 +52333,7 @@
         <v>5000.0</v>
       </c>
       <c r="M118">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N118">
         <v>0.002</v>
@@ -52389,7 +52389,7 @@
         <v>5000.0</v>
       </c>
       <c r="M119">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N119">
         <v>0.002</v>
@@ -52445,7 +52445,7 @@
         <v>5000.0</v>
       </c>
       <c r="M120">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N120">
         <v>0.002</v>
@@ -52501,7 +52501,7 @@
         <v>5000.0</v>
       </c>
       <c r="M121">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N121">
         <v>0.002</v>
@@ -52557,7 +52557,7 @@
         <v>5000.0</v>
       </c>
       <c r="M122">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N122">
         <v>0.002</v>
@@ -52613,7 +52613,7 @@
         <v>5000.0</v>
       </c>
       <c r="M123">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N123">
         <v>0.002</v>
@@ -52669,7 +52669,7 @@
         <v>5000.0</v>
       </c>
       <c r="M124">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N124">
         <v>0.002</v>
@@ -52725,7 +52725,7 @@
         <v>5000.0</v>
       </c>
       <c r="M125">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N125">
         <v>0.002</v>
@@ -52781,7 +52781,7 @@
         <v>5000.0</v>
       </c>
       <c r="M126">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N126">
         <v>0.002</v>
@@ -52837,7 +52837,7 @@
         <v>5000.0</v>
       </c>
       <c r="M127">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N127">
         <v>0.002</v>
@@ -52893,7 +52893,7 @@
         <v>5000.0</v>
       </c>
       <c r="M128">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N128">
         <v>0.002</v>
@@ -52949,7 +52949,7 @@
         <v>5000.0</v>
       </c>
       <c r="M129">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N129">
         <v>0.002</v>
@@ -53005,7 +53005,7 @@
         <v>5000.0</v>
       </c>
       <c r="M130">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N130">
         <v>0.002</v>
@@ -53061,7 +53061,7 @@
         <v>5000.0</v>
       </c>
       <c r="M131">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N131">
         <v>0.002</v>
@@ -53117,7 +53117,7 @@
         <v>5000.0</v>
       </c>
       <c r="M132">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N132">
         <v>0.002</v>
@@ -53173,7 +53173,7 @@
         <v>5000.0</v>
       </c>
       <c r="M133">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N133">
         <v>0.002</v>
@@ -53229,7 +53229,7 @@
         <v>5000.0</v>
       </c>
       <c r="M134">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N134">
         <v>0.002</v>
@@ -53285,7 +53285,7 @@
         <v>5000.0</v>
       </c>
       <c r="M135">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N135">
         <v>0.002</v>
@@ -53341,7 +53341,7 @@
         <v>5000.0</v>
       </c>
       <c r="M136">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N136">
         <v>0.002</v>
@@ -53397,7 +53397,7 @@
         <v>5000.0</v>
       </c>
       <c r="M137">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N137">
         <v>0.002</v>
@@ -53453,7 +53453,7 @@
         <v>5000.0</v>
       </c>
       <c r="M138">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N138">
         <v>0.002</v>
@@ -53509,7 +53509,7 @@
         <v>5000.0</v>
       </c>
       <c r="M139">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N139">
         <v>0.002</v>
@@ -53565,7 +53565,7 @@
         <v>5000.0</v>
       </c>
       <c r="M140">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N140">
         <v>0.002</v>
@@ -53621,7 +53621,7 @@
         <v>5000.0</v>
       </c>
       <c r="M141">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N141">
         <v>0.002</v>
@@ -53677,7 +53677,7 @@
         <v>5000.0</v>
       </c>
       <c r="M142">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N142">
         <v>0.002</v>
@@ -53733,7 +53733,7 @@
         <v>5000.0</v>
       </c>
       <c r="M143">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N143">
         <v>0.002</v>
@@ -53789,7 +53789,7 @@
         <v>5000.0</v>
       </c>
       <c r="M144">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N144">
         <v>0.002</v>
@@ -53845,7 +53845,7 @@
         <v>5000.0</v>
       </c>
       <c r="M145">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N145">
         <v>0.002</v>
@@ -53901,7 +53901,7 @@
         <v>5000.0</v>
       </c>
       <c r="M146">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N146">
         <v>0.002</v>
@@ -53957,7 +53957,7 @@
         <v>5000.0</v>
       </c>
       <c r="M147">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N147">
         <v>0.002</v>
@@ -54013,7 +54013,7 @@
         <v>5000.0</v>
       </c>
       <c r="M148">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N148">
         <v>0.002</v>
@@ -54069,7 +54069,7 @@
         <v>5000.0</v>
       </c>
       <c r="M149">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N149">
         <v>0.002</v>
@@ -54125,7 +54125,7 @@
         <v>5000.0</v>
       </c>
       <c r="M150">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N150">
         <v>0.002</v>
@@ -54181,7 +54181,7 @@
         <v>5000.0</v>
       </c>
       <c r="M151">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N151">
         <v>0.002</v>
@@ -54237,7 +54237,7 @@
         <v>5000.0</v>
       </c>
       <c r="M152">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N152">
         <v>0.002</v>
@@ -54293,7 +54293,7 @@
         <v>5000.0</v>
       </c>
       <c r="M153">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N153">
         <v>0.002</v>
@@ -54349,7 +54349,7 @@
         <v>5000.0</v>
       </c>
       <c r="M154">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N154">
         <v>0.002</v>
@@ -54405,7 +54405,7 @@
         <v>5000.0</v>
       </c>
       <c r="M155">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N155">
         <v>0.002</v>
@@ -54461,7 +54461,7 @@
         <v>5000.0</v>
       </c>
       <c r="M156">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N156">
         <v>0.002</v>
@@ -54517,7 +54517,7 @@
         <v>5000.0</v>
       </c>
       <c r="M157">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N157">
         <v>0.002</v>
@@ -54573,7 +54573,7 @@
         <v>5000.0</v>
       </c>
       <c r="M158">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N158">
         <v>0.002</v>
@@ -54629,7 +54629,7 @@
         <v>5000.0</v>
       </c>
       <c r="M159">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N159">
         <v>0.002</v>
@@ -54685,7 +54685,7 @@
         <v>5000.0</v>
       </c>
       <c r="M160">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N160">
         <v>0.002</v>
@@ -54741,7 +54741,7 @@
         <v>5000.0</v>
       </c>
       <c r="M161">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N161">
         <v>0.002</v>
@@ -54797,7 +54797,7 @@
         <v>5000.0</v>
       </c>
       <c r="M162">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N162">
         <v>0.002</v>
@@ -54853,7 +54853,7 @@
         <v>5000.0</v>
       </c>
       <c r="M163">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N163">
         <v>0.002</v>
@@ -54909,7 +54909,7 @@
         <v>5000.0</v>
       </c>
       <c r="M164">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N164">
         <v>0.002</v>
@@ -54965,7 +54965,7 @@
         <v>5000.0</v>
       </c>
       <c r="M165">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N165">
         <v>0.002</v>
@@ -55021,7 +55021,7 @@
         <v>5000.0</v>
       </c>
       <c r="M166">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N166">
         <v>0.002</v>
@@ -55077,7 +55077,7 @@
         <v>5000.0</v>
       </c>
       <c r="M167">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N167">
         <v>0.002</v>
@@ -55133,7 +55133,7 @@
         <v>5000.0</v>
       </c>
       <c r="M168">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N168">
         <v>0.002</v>
@@ -55189,7 +55189,7 @@
         <v>5000.0</v>
       </c>
       <c r="M169">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N169">
         <v>0.002</v>
@@ -55245,7 +55245,7 @@
         <v>5000.0</v>
       </c>
       <c r="M170">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N170">
         <v>0.002</v>
@@ -55301,7 +55301,7 @@
         <v>5000.0</v>
       </c>
       <c r="M171">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N171">
         <v>0.002</v>
@@ -55357,7 +55357,7 @@
         <v>5000.0</v>
       </c>
       <c r="M172">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N172">
         <v>0.002</v>
@@ -55413,7 +55413,7 @@
         <v>5000.0</v>
       </c>
       <c r="M173">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N173">
         <v>0.002</v>
@@ -55469,7 +55469,7 @@
         <v>5000.0</v>
       </c>
       <c r="M174">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N174">
         <v>0.002</v>
@@ -55525,7 +55525,7 @@
         <v>5000.0</v>
       </c>
       <c r="M175">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N175">
         <v>0.002</v>
@@ -55581,7 +55581,7 @@
         <v>5000.0</v>
       </c>
       <c r="M176">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N176">
         <v>0.002</v>
@@ -55637,7 +55637,7 @@
         <v>5000.0</v>
       </c>
       <c r="M177">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N177">
         <v>0.002</v>
@@ -55693,7 +55693,7 @@
         <v>5000.0</v>
       </c>
       <c r="M178">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N178">
         <v>0.002</v>
@@ -55749,7 +55749,7 @@
         <v>5000.0</v>
       </c>
       <c r="M179">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N179">
         <v>0.002</v>
@@ -55805,7 +55805,7 @@
         <v>5000.0</v>
       </c>
       <c r="M180">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N180">
         <v>0.002</v>
@@ -55861,7 +55861,7 @@
         <v>5000.0</v>
       </c>
       <c r="M181">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N181">
         <v>0.002</v>
@@ -55917,7 +55917,7 @@
         <v>5000.0</v>
       </c>
       <c r="M182">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N182">
         <v>0.002</v>
@@ -55973,7 +55973,7 @@
         <v>5000.0</v>
       </c>
       <c r="M183">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N183">
         <v>0.002</v>
@@ -56029,7 +56029,7 @@
         <v>5000.0</v>
       </c>
       <c r="M184">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N184">
         <v>0.002</v>
@@ -56085,7 +56085,7 @@
         <v>5000.0</v>
       </c>
       <c r="M185">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N185">
         <v>0.002</v>
@@ -56141,7 +56141,7 @@
         <v>5000.0</v>
       </c>
       <c r="M186">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N186">
         <v>0.002</v>
@@ -56197,7 +56197,7 @@
         <v>5000.0</v>
       </c>
       <c r="M187">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N187">
         <v>0.002</v>
@@ -56253,7 +56253,7 @@
         <v>5000.0</v>
       </c>
       <c r="M188">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N188">
         <v>0.002</v>
@@ -56309,7 +56309,7 @@
         <v>5000.0</v>
       </c>
       <c r="M189">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N189">
         <v>0.002</v>
@@ -56365,7 +56365,7 @@
         <v>5000.0</v>
       </c>
       <c r="M190">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N190">
         <v>0.002</v>
@@ -56421,7 +56421,7 @@
         <v>5000.0</v>
       </c>
       <c r="M191">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N191">
         <v>0.002</v>
@@ -56477,7 +56477,7 @@
         <v>5000.0</v>
       </c>
       <c r="M192">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N192">
         <v>0.002</v>
@@ -56533,7 +56533,7 @@
         <v>5000.0</v>
       </c>
       <c r="M193">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N193">
         <v>0.002</v>
@@ -56589,7 +56589,7 @@
         <v>5000.0</v>
       </c>
       <c r="M194">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N194">
         <v>0.002</v>
@@ -56645,7 +56645,7 @@
         <v>5000.0</v>
       </c>
       <c r="M195">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N195">
         <v>0.002</v>
@@ -56701,7 +56701,7 @@
         <v>5000.0</v>
       </c>
       <c r="M196">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N196">
         <v>0.002</v>
@@ -56757,7 +56757,7 @@
         <v>5000.0</v>
       </c>
       <c r="M197">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N197">
         <v>0.002</v>
@@ -56813,7 +56813,7 @@
         <v>5000.0</v>
       </c>
       <c r="M198">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N198">
         <v>0.002</v>
@@ -56869,7 +56869,7 @@
         <v>5000.0</v>
       </c>
       <c r="M199">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N199">
         <v>0.002</v>
@@ -56925,7 +56925,7 @@
         <v>5000.0</v>
       </c>
       <c r="M200">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N200">
         <v>0.002</v>
@@ -56981,7 +56981,7 @@
         <v>5000.0</v>
       </c>
       <c r="M201">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N201">
         <v>0.002</v>
@@ -57037,7 +57037,7 @@
         <v>5000.0</v>
       </c>
       <c r="M202">
-        <v>1.719046539246457e-8</v>
+        <v>1.7190465392464566e-8</v>
       </c>
       <c r="N202">
         <v>0.002</v>
